--- a/biology/Botanique/Jean_Babaud/Jean_Babaud.xlsx
+++ b/biology/Botanique/Jean_Babaud/Jean_Babaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Babaud de La Chaussade, né vers 1702 à Bellac (Limousin) et mort à Paris le 14 décembre 1739, est un fournisseur de la Marine royale, maître de forges et propriétaire forestier français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Babaud est le fils de Pierre Babaud, sieur de Beaupré, intéressé dans la fourniture de bois pour la Marine royale, et de Marguerite Jouhinot. Il est le frère de Pierre Babaud de La Chaussade.
 Il épouse Marie Boësnier, sœur de Paul Boësnier de l'Orme. Ils ont deux filles : Charlotte (qui sera notamment la mère de Joseph-Alexis, Charles, Pauline et Jacques-Augustin Robert de Lézardière) et Angélique-Dorothée (future marquise de Cassini).
